--- a/resources/n5_kanji.xlsx
+++ b/resources/n5_kanji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximvy\Documents\GitHub\Japanese-App\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B434F17E-84F5-495C-8F40-E1A6185B3B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE5A782-1FF9-4E76-ABA4-82BBAD446B83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A9626AEC-1B99-49EB-991E-C4900A65DD66}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="252">
   <si>
     <r>
       <rPr>
@@ -1124,6 +1124,81 @@
   </si>
   <si>
     <t>Lesson; Class Work; Teaching; Instruction</t>
+  </si>
+  <si>
+    <t>densha</t>
+  </si>
+  <si>
+    <t>soto</t>
+  </si>
+  <si>
+    <t>eki</t>
+  </si>
+  <si>
+    <t>kawa</t>
+  </si>
+  <si>
+    <t>rainen</t>
+  </si>
+  <si>
+    <t>natsu</t>
+  </si>
+  <si>
+    <t>gaikoku</t>
+  </si>
+  <si>
+    <t>iku</t>
+  </si>
+  <si>
+    <t>tenki</t>
+  </si>
+  <si>
+    <t>atode</t>
+  </si>
+  <si>
+    <t>shinbun</t>
+  </si>
+  <si>
+    <t>kai</t>
+  </si>
+  <si>
+    <t>ichinichi</t>
+  </si>
+  <si>
+    <t>nijuuyon</t>
+  </si>
+  <si>
+    <t>jikan</t>
+  </si>
+  <si>
+    <t>rokujuupun</t>
+  </si>
+  <si>
+    <t>ippun</t>
+  </si>
+  <si>
+    <t>nagai</t>
+  </si>
+  <si>
+    <t>akarui</t>
+  </si>
+  <si>
+    <t>yomu</t>
+  </si>
+  <si>
+    <t>jukyou</t>
+  </si>
+  <si>
+    <t>denwa</t>
+  </si>
+  <si>
+    <t>suiyoubi</t>
+  </si>
+  <si>
+    <t>umareru</t>
+  </si>
+  <si>
+    <t>minami</t>
   </si>
 </sst>
 </file>
@@ -1520,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E004340-5027-41B6-808C-85893D1E3F9C}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,13 +1607,14 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="6" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="44.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
     <col min="10" max="10" width="42.140625" customWidth="1"/>
     <col min="11" max="11" width="65" customWidth="1"/>
     <col min="12" max="12" width="67.7109375" customWidth="1"/>
+    <col min="13" max="13" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,20 +1639,23 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,20 +1680,23 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,20 +1721,23 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1677,20 +1762,23 @@
       <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1715,20 +1803,23 @@
       <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1753,20 +1844,23 @@
       <c r="H6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1791,20 +1885,23 @@
       <c r="H7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -1829,20 +1926,23 @@
       <c r="H8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -1867,20 +1967,23 @@
       <c r="H9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
@@ -1905,20 +2008,23 @@
       <c r="H10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -1943,20 +2049,23 @@
       <c r="H11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
@@ -1981,20 +2090,23 @@
       <c r="H12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -2019,20 +2131,23 @@
       <c r="H13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
@@ -2057,20 +2172,23 @@
       <c r="H14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -2095,20 +2213,23 @@
       <c r="H15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -2133,20 +2254,23 @@
       <c r="H16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -2171,20 +2295,23 @@
       <c r="H17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>133</v>
       </c>
@@ -2209,20 +2336,23 @@
       <c r="H18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>133</v>
       </c>
@@ -2247,20 +2377,23 @@
       <c r="H19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>150</v>
       </c>
@@ -2285,20 +2418,23 @@
       <c r="H20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s">
+        <v>245</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>159</v>
       </c>
@@ -2323,20 +2459,23 @@
       <c r="H21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>170</v>
       </c>
@@ -2361,20 +2500,23 @@
       <c r="H22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" t="s">
+        <v>247</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>179</v>
       </c>
@@ -2399,20 +2541,23 @@
       <c r="H23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" t="s">
+        <v>248</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>187</v>
       </c>
@@ -2437,20 +2582,23 @@
       <c r="H24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
+        <v>249</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>197</v>
       </c>
@@ -2475,16 +2623,19 @@
       <c r="H25" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
+        <v>250</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>207</v>
       </c>
     </row>

--- a/resources/n5_kanji.xlsx
+++ b/resources/n5_kanji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ximvy\Documents\GitHub\Japanese-App\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE5A782-1FF9-4E76-ABA4-82BBAD446B83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE3EB64-5706-4E9D-852A-4E9B003A9C0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A9626AEC-1B99-49EB-991E-C4900A65DD66}"/>
   </bookViews>
@@ -504,9 +504,6 @@
     <t>この新聞はむりょうです。</t>
   </si>
   <si>
-    <t>This newspaper is free</t>
-  </si>
-  <si>
     <t>会い</t>
   </si>
   <si>
@@ -1199,6 +1196,9 @@
   </si>
   <si>
     <t>minami</t>
+  </si>
+  <si>
+    <t>This newspaper is free.</t>
   </si>
 </sst>
 </file>
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E004340-5027-41B6-808C-85893D1E3F9C}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,22 +1634,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1675,13 +1675,13 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -1716,19 +1716,19 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>21</v>
@@ -1757,13 +1757,13 @@
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1798,13 +1798,13 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -1839,13 +1839,13 @@
         <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>6</v>
@@ -1880,25 +1880,25 @@
         <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1921,13 +1921,13 @@
         <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>6</v>
@@ -1939,7 +1939,7 @@
         <v>64</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1962,19 +1962,19 @@
         <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>71</v>
@@ -2003,19 +2003,19 @@
         <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>78</v>
@@ -2044,13 +2044,13 @@
         <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>6</v>
@@ -2062,7 +2062,7 @@
         <v>87</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2073,570 +2073,570 @@
         <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" t="s">
-        <v>244</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" t="s">
+        <v>244</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I20" t="s">
-        <v>245</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" t="s">
+        <v>245</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I21" t="s">
-        <v>246</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" t="s">
-        <v>247</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="I24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I25" t="s">
-        <v>250</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
